--- a/CP030/Default.xlsx
+++ b/CP030/Default.xlsx
@@ -56,9 +56,6 @@
     <t>e_DocContactoAsociado</t>
   </si>
   <si>
-    <t>RUC</t>
-  </si>
-  <si>
     <t>e_Motivo</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
     <t>Inicio</t>
   </si>
   <si>
+    <t>DNI</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
@@ -80,7 +80,7 @@
     <t>UAT4</t>
   </si>
   <si>
-    <t>cpontec</t>
+    <t>ariverar</t>
   </si>
   <si>
     <t>BAJA</t>
@@ -295,10 +295,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -624,22 +624,22 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.49609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.03125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c t="s">
         <v>5</v>
@@ -698,7 +698,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -726,10 +726,10 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c s="1">
-        <v>20547765860</v>
+        <v>70987719</v>
       </c>
       <c s="1"/>
       <c s="3"/>
@@ -795,7 +795,7 @@
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,7 +807,7 @@
         <v>23</v>
       </c>
       <c t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c t="s">
         <v>17</v>
@@ -830,7 +830,7 @@
     </row>
     <row ht="12.75" customHeight="1" s="2" customFormat="1">
       <c s="1">
-        <v>650006472</v>
+        <v>600000190</v>
       </c>
       <c s="1" t="s">
         <v>24</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
@@ -853,7 +853,7 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>0</v>
       </c>
     </row>
